--- a/assets/Petite.xlsx
+++ b/assets/Petite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaspradignac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EAD5FDA-832E-BD42-B63D-1E60A45ECE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BF2CD6-8784-5940-9B7B-AABC48DBF9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="34920" windowHeight="19840" xr2:uid="{0E25F3FA-30B7-4548-A2E6-27E425FF4E52}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="27180" windowHeight="19840" xr2:uid="{0E25F3FA-30B7-4548-A2E6-27E425FF4E52}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiche de production" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="111">
   <si>
     <t>Quantité</t>
   </si>
@@ -633,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1106,6 +1106,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1208,13 +1223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1528,6 +1536,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1582,65 +1591,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>239276</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>174855</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="685800" cy="457200"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8768D6-0094-9A45-96DB-390BF6B3242E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="239276" y="174855"/>
-          <a:ext cx="685800" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1971,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC692FA-4504-2847-8060-0EEE7AA95510}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="200" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1985,62 +1935,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="152" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="153"/>
+      <c r="J1" s="152"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="154" t="s">
+      <c r="A2" s="147"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="155"/>
+      <c r="J2" s="154"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="148"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="156" t="s">
+      <c r="A3" s="147"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="157"/>
+      <c r="J3" s="156"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="150"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="158" t="s">
+      <c r="A4" s="149"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="159"/>
+      <c r="J4" s="158"/>
     </row>
     <row r="5" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -2055,18 +2005,18 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -2084,17 +2034,15 @@
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="140"/>
     </row>
     <row r="9" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -2112,10 +2060,8 @@
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="142">
-        <v>46427</v>
-      </c>
-      <c r="C10" s="143"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2123,10 +2069,8 @@
       <c r="H10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="144">
-        <v>90226</v>
-      </c>
-      <c r="J10" s="145"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="144"/>
     </row>
     <row r="11" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -2142,36 +2086,36 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100" t="s">
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="101"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="100"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="103"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="103"/>
+      <c r="G13" s="102"/>
       <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
@@ -2214,7 +2158,7 @@
       </c>
       <c r="B15" s="2">
         <f>B16*12</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
         <f>C16*6</f>
@@ -2222,23 +2166,23 @@
       </c>
       <c r="D15" s="2">
         <f>D16*12</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <f>E16*6</f>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <f>F16*6</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <f>G16*4</f>
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <f>H16*6</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="8"/>
@@ -2247,27 +2191,15 @@
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="5">
         <v>400</v>
       </c>
-      <c r="D16" s="5">
-        <v>500</v>
-      </c>
-      <c r="E16" s="6">
-        <v>600</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>276</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="8"/>
     </row>
@@ -2275,17 +2207,17 @@
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="108">
+      <c r="B17" s="107">
         <f>(SUM(B15:E15)*0.33+SUM(F15:I15)*0.75)</f>
-        <v>4800.96</v>
-      </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="110"/>
+        <v>792</v>
+      </c>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2301,18 +2233,18 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="113"/>
     </row>
     <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -2333,19 +2265,17 @@
       <c r="F20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="134" t="s">
+      <c r="G20" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="135"/>
-      <c r="I20" s="136"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="135"/>
       <c r="J20" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
-        <v>46062</v>
-      </c>
+      <c r="A21" s="24"/>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -2353,9 +2283,9 @@
       <c r="F21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="137"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
       <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2367,9 +2297,9 @@
       <c r="F22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="137"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
       <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2381,9 +2311,9 @@
       <c r="F23" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="137"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
+      <c r="G23" s="136"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2395,12 +2325,12 @@
       <c r="F24" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="137"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="1:10" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2412,15 +2342,13 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" s="38" t="s">
+      <c r="C26" s="159"/>
+      <c r="D26" s="37" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="8"/>
@@ -2430,13 +2358,11 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="38" t="s">
+      <c r="C27" s="159"/>
+      <c r="D27" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="8"/>
@@ -2459,116 +2385,116 @@
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="H29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="117" t="s">
+      <c r="A30" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="43">
+      <c r="B30" s="128"/>
+      <c r="C30" s="42">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!C:C)</f>
-        <v>182.03360000000001</v>
+        <v>0</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="115" t="s">
+      <c r="G30" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="81" t="s">
+      <c r="H30" s="115"/>
+      <c r="I30" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="81" t="s">
+      <c r="J30" s="80" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="130" t="s">
+      <c r="A31" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="131"/>
-      <c r="C31" s="44">
+      <c r="B31" s="130"/>
+      <c r="C31" s="43">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!D:D)</f>
-        <v>83.215360000000004</v>
-      </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="117" t="s">
+      <c r="G31" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="118"/>
-      <c r="I31" s="78">
+      <c r="H31" s="117"/>
+      <c r="I31" s="77">
         <f>SUM(B15:E15)</f>
-        <v>12012</v>
-      </c>
-      <c r="J31" s="84">
+        <v>2400</v>
+      </c>
+      <c r="J31" s="83">
         <f>I31/3610</f>
-        <v>3.3274238227146813</v>
+        <v>0.66481994459833793</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="130" t="s">
+      <c r="A32" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="131"/>
-      <c r="C32" s="44">
+      <c r="B32" s="130"/>
+      <c r="C32" s="43">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!E:E)</f>
-        <v>20.803840000000001</v>
+        <v>0</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="45"/>
-      <c r="I32" s="78">
+      <c r="H32" s="44"/>
+      <c r="I32" s="77">
         <f>G15+H15</f>
-        <v>1110</v>
-      </c>
-      <c r="J32" s="82">
+        <v>0</v>
+      </c>
+      <c r="J32" s="81">
         <f>I32/1421</f>
-        <v>0.78114004222378608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="133"/>
-      <c r="C33" s="54">
+      <c r="B33" s="132"/>
+      <c r="C33" s="53">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!F:F)</f>
-        <v>31.205760000000001</v>
+        <v>0</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="47"/>
-      <c r="I33" s="79">
+      <c r="H33" s="46"/>
+      <c r="I33" s="78">
         <f>F15</f>
-        <v>6</v>
-      </c>
-      <c r="J33" s="85">
+        <v>0</v>
+      </c>
+      <c r="J33" s="84">
         <f>I33/1421</f>
-        <v>4.22237860661506E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2584,38 +2510,38 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="129"/>
-      <c r="C35" s="50">
+      <c r="B35" s="128"/>
+      <c r="C35" s="49">
         <f>B17+400</f>
-        <v>5200.96</v>
+        <v>1192</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="80" t="s">
+      <c r="G35" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="86"/>
-      <c r="I35" s="81">
+      <c r="H35" s="85"/>
+      <c r="I35" s="80">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="J35" s="83">
+      <c r="J35" s="82">
         <f>I35/1421</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="130" t="s">
+      <c r="A36" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="131"/>
-      <c r="C36" s="51">
+      <c r="B36" s="130"/>
+      <c r="C36" s="50">
         <f>'CUVE 1 et 2 Mesure'!G6</f>
-        <v>268.99599999999998</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2626,11 +2552,11 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="130" t="s">
+      <c r="A37" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="131"/>
-      <c r="C37" s="51" t="s">
+      <c r="B37" s="130"/>
+      <c r="C37" s="50" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="8"/>
@@ -2642,11 +2568,11 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="132" t="s">
+      <c r="A38" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="133"/>
-      <c r="C38" s="52" t="s">
+      <c r="B38" s="132"/>
+      <c r="C38" s="51" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="8"/>
@@ -2670,27 +2596,27 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="55" t="str">
+      <c r="A41" s="54" t="str">
         <f>A8</f>
         <v>Produit  :</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="120"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="119"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2699,15 +2625,15 @@
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="125">
+      <c r="B42" s="124">
         <f>IF(ISNUMBER( SEARCH("Infusion",B8)), 0, (C35-200)*60%)</f>
-        <v>3000.576</v>
-      </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="126"/>
+        <v>595.19999999999993</v>
+      </c>
+      <c r="C42" s="124"/>
+      <c r="D42" s="125"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2716,15 +2642,15 @@
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="125">
+      <c r="B43" s="124">
         <f>IF(ISNUMBER(SEARCH("infusion",B8)),0,_xlfn.XLOOKUP(B8,Data!E:E,Data!F:F)*'Fiche de production'!C35+B42)</f>
-        <v>3125.3990400000002</v>
-      </c>
-      <c r="C43" s="125"/>
-      <c r="D43" s="126"/>
+        <v>595.19999999999993</v>
+      </c>
+      <c r="C43" s="124"/>
+      <c r="D43" s="125"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2733,15 +2659,15 @@
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="127">
+      <c r="B44" s="126">
         <f>'CUVE 1 et 2 Mesure'!G13</f>
-        <v>160.76995200000002</v>
-      </c>
-      <c r="C44" s="127"/>
-      <c r="D44" s="128"/>
+        <v>34.252577319587623</v>
+      </c>
+      <c r="C44" s="126"/>
+      <c r="D44" s="127"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2762,12 +2688,12 @@
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2776,13 +2702,13 @@
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="55" t="str">
+      <c r="A47" s="54" t="str">
         <f>A14</f>
         <v>Quantité</v>
       </c>
-      <c r="B47" s="119"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="120"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="119"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2791,15 +2717,15 @@
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="121">
+      <c r="B48" s="120">
         <f>_xlfn.XLOOKUP(B8,Data!E:E,Data!F:F)*'Fiche de production'!C35+C35-400</f>
-        <v>4925.7830400000003</v>
-      </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="122"/>
+        <v>792</v>
+      </c>
+      <c r="C48" s="120"/>
+      <c r="D48" s="121"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2808,15 +2734,15 @@
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="123">
+      <c r="B49" s="122">
         <f>'CUVE 1 et 2 Mesure'!G21</f>
-        <v>251.45727746534652</v>
-      </c>
-      <c r="C49" s="123"/>
-      <c r="D49" s="124"/>
+        <v>44.1</v>
+      </c>
+      <c r="C49" s="122"/>
+      <c r="D49" s="123"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -2837,7 +2763,7 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="58" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="8"/>
@@ -2881,14 +2807,14 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="37" t="s">
         <v>93</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="77">
+      <c r="J54" s="76">
         <f>A21</f>
-        <v>46062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -2904,18 +2830,18 @@
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="112" t="s">
+      <c r="A56" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="113"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
-      <c r="I56" s="113"/>
-      <c r="J56" s="114"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="113"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
@@ -2931,17 +2857,17 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
-      <c r="B58" s="87" t="str">
+      <c r="B58" s="86" t="str">
         <f>A8</f>
         <v>Produit  :</v>
       </c>
-      <c r="C58" s="111" t="str">
+      <c r="C58" s="110">
         <f>B8</f>
-        <v>K. Gingembre</v>
-      </c>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -2961,36 +2887,36 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
-      <c r="B60" s="97" t="s">
+      <c r="B60" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="100" t="s">
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
-      <c r="I60" s="101"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="100"/>
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="103"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="104" t="s">
+      <c r="F61" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="103"/>
+      <c r="G61" s="102"/>
       <c r="H61" s="2" t="s">
         <v>3</v>
       </c>
@@ -3032,32 +2958,32 @@
         <v>6</v>
       </c>
       <c r="B63" s="2">
-        <f>B64*12</f>
-        <v>12</v>
+        <f>ROUNDDOWN(((B15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
+        <v>0</v>
       </c>
       <c r="C63" s="2">
-        <f>C64*6</f>
-        <v>2400</v>
+        <f>ROUNDDOWN(((C15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
+        <v>1793</v>
       </c>
       <c r="D63" s="2">
-        <f>D64*12</f>
-        <v>6000</v>
+        <f t="shared" ref="D63:I63" si="0">ROUNDDOWN(((D15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
+        <v>0</v>
       </c>
       <c r="E63" s="3">
-        <f>E64*6</f>
-        <v>3600</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F63" s="1">
-        <f>F64*6</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G63" s="2">
-        <f>G64*4</f>
-        <v>1104</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H63" s="2">
-        <f>H64*6</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="8"/>
@@ -3066,45 +2992,47 @@
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="5">
-        <v>1</v>
-      </c>
-      <c r="C64" s="5">
-        <v>400</v>
-      </c>
-      <c r="D64" s="5">
-        <v>500</v>
-      </c>
-      <c r="E64" s="6">
-        <v>600</v>
-      </c>
-      <c r="F64" s="7">
-        <v>1</v>
-      </c>
-      <c r="G64" s="5">
-        <v>276</v>
-      </c>
-      <c r="H64" s="5">
-        <v>1</v>
-      </c>
-      <c r="I64" s="5"/>
+      <c r="B64" s="2">
+        <f>ROUNDUP(B63/12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="2">
+        <f>ROUNDUP(C63/6,0)</f>
+        <v>299</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" ref="C64:I64" si="1">ROUNDUP(D63/12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <f>ROUNDUP(F63/6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <f>ROUNDUP(G63/4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <f>ROUNDUP(H63/6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="2"/>
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="108">
-        <f>(SUM(B63:E63)*0.33+SUM(F63:I63)*0.75)</f>
-        <v>4800.96</v>
-      </c>
-      <c r="C65" s="109"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="109"/>
-      <c r="H65" s="109"/>
-      <c r="I65" s="110"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -3119,39 +3047,45 @@
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A68" s="112" t="s">
+    <row r="67" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="113"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="113"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="113"/>
-      <c r="H68" s="113"/>
-      <c r="I68" s="113"/>
-      <c r="J68" s="114"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="113"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
+      <c r="B69" s="86" t="str">
+        <f>B58</f>
+        <v>Produit  :</v>
+      </c>
+      <c r="C69" s="110">
+        <f>C58</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="110"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="110"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -3159,105 +3093,101 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
-      <c r="B70" s="87" t="str">
-        <f>B58</f>
-        <v>Produit  :</v>
-      </c>
-      <c r="C70" s="111" t="str">
-        <f>C58</f>
-        <v>K. Gingembre</v>
-      </c>
-      <c r="D70" s="111"/>
-      <c r="E70" s="111"/>
-      <c r="F70" s="111"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="100"/>
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="98"/>
-      <c r="D72" s="98"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="G72" s="98"/>
-      <c r="H72" s="98"/>
-      <c r="I72" s="101"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="102"/>
+      <c r="D72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="102"/>
+      <c r="H72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J72" s="8"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="103"/>
+    <row r="73" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D73" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="103"/>
+        <v>4</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="H73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I73" s="2"/>
       <c r="J73" s="8"/>
     </row>
     <row r="74" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="8"/>
     </row>
     <row r="75" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3271,37 +3201,37 @@
     </row>
     <row r="76" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B76" s="104">
+        <f>B10</f>
+        <v>0</v>
+      </c>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="106"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="105">
-        <f>B10</f>
-        <v>46427</v>
-      </c>
-      <c r="C77" s="106"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="106"/>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="107"/>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
+      <c r="A78" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -3312,23 +3242,23 @@
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
+    <row r="79" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3342,7 +3272,7 @@
     </row>
     <row r="81" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3354,18 +3284,16 @@
       <c r="I81" s="2"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="8"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -3381,191 +3309,179 @@
       <c r="J83" s="8"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
+      <c r="A84" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="88"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="88"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="88"/>
+      <c r="H84" s="88"/>
+      <c r="I84" s="88"/>
+      <c r="J84" s="92"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="B85" s="89"/>
-      <c r="C85" s="89"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="89"/>
-      <c r="F85" s="89"/>
-      <c r="G85" s="89"/>
-      <c r="H85" s="89"/>
-      <c r="I85" s="89"/>
-      <c r="J85" s="93"/>
+      <c r="A85" s="89"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="93"/>
+      <c r="J85" s="94"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="90"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="94"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="94"/>
-      <c r="H86" s="94"/>
-      <c r="I86" s="94"/>
-      <c r="J86" s="95"/>
+      <c r="A86" s="89"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="93"/>
+      <c r="D86" s="93"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="93"/>
+      <c r="H86" s="93"/>
+      <c r="I86" s="93"/>
+      <c r="J86" s="94"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="90"/>
-      <c r="B87" s="94"/>
-      <c r="C87" s="94"/>
-      <c r="D87" s="94"/>
-      <c r="E87" s="94"/>
-      <c r="F87" s="94"/>
-      <c r="G87" s="94"/>
-      <c r="H87" s="94"/>
-      <c r="I87" s="94"/>
-      <c r="J87" s="95"/>
+      <c r="A87" s="89"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="93"/>
+      <c r="H87" s="93"/>
+      <c r="I87" s="93"/>
+      <c r="J87" s="94"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="90"/>
-      <c r="B88" s="94"/>
-      <c r="C88" s="94"/>
-      <c r="D88" s="94"/>
-      <c r="E88" s="94"/>
-      <c r="F88" s="94"/>
-      <c r="G88" s="94"/>
-      <c r="H88" s="94"/>
-      <c r="I88" s="94"/>
-      <c r="J88" s="95"/>
+      <c r="A88" s="89"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="93"/>
+      <c r="D88" s="93"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="93"/>
+      <c r="H88" s="93"/>
+      <c r="I88" s="93"/>
+      <c r="J88" s="94"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="90"/>
-      <c r="B89" s="94"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="94"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="94"/>
-      <c r="H89" s="94"/>
-      <c r="I89" s="94"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="91"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="91"/>
       <c r="J89" s="95"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="91"/>
-      <c r="B90" s="92"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="92"/>
-      <c r="F90" s="92"/>
-      <c r="G90" s="92"/>
-      <c r="H90" s="92"/>
-      <c r="I90" s="92"/>
-      <c r="J90" s="96"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
+      <c r="A91" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="88"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="88"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="88"/>
+      <c r="H91" s="88"/>
+      <c r="I91" s="88"/>
+      <c r="J91" s="92"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="89"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="89"/>
-      <c r="F92" s="89"/>
-      <c r="G92" s="89"/>
-      <c r="H92" s="89"/>
-      <c r="I92" s="89"/>
-      <c r="J92" s="93"/>
+      <c r="A92" s="89"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="93"/>
+      <c r="G92" s="93"/>
+      <c r="H92" s="93"/>
+      <c r="I92" s="93"/>
+      <c r="J92" s="94"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="90"/>
-      <c r="B93" s="94"/>
-      <c r="C93" s="94"/>
-      <c r="D93" s="94"/>
-      <c r="E93" s="94"/>
-      <c r="F93" s="94"/>
-      <c r="G93" s="94"/>
-      <c r="H93" s="94"/>
-      <c r="I93" s="94"/>
-      <c r="J93" s="95"/>
+      <c r="A93" s="89"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="93"/>
+      <c r="G93" s="93"/>
+      <c r="H93" s="93"/>
+      <c r="I93" s="93"/>
+      <c r="J93" s="94"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="90"/>
-      <c r="B94" s="94"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="94"/>
-      <c r="E94" s="94"/>
-      <c r="F94" s="94"/>
-      <c r="G94" s="94"/>
-      <c r="H94" s="94"/>
-      <c r="I94" s="94"/>
-      <c r="J94" s="95"/>
+      <c r="A94" s="89"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="93"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="93"/>
+      <c r="I94" s="93"/>
+      <c r="J94" s="94"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="90"/>
-      <c r="B95" s="94"/>
-      <c r="C95" s="94"/>
-      <c r="D95" s="94"/>
-      <c r="E95" s="94"/>
-      <c r="F95" s="94"/>
-      <c r="G95" s="94"/>
-      <c r="H95" s="94"/>
-      <c r="I95" s="94"/>
-      <c r="J95" s="95"/>
+      <c r="A95" s="89"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="93"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="93"/>
+      <c r="G95" s="93"/>
+      <c r="H95" s="93"/>
+      <c r="I95" s="93"/>
+      <c r="J95" s="94"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="90"/>
-      <c r="B96" s="94"/>
-      <c r="C96" s="94"/>
-      <c r="D96" s="94"/>
-      <c r="E96" s="94"/>
-      <c r="F96" s="94"/>
-      <c r="G96" s="94"/>
-      <c r="H96" s="94"/>
-      <c r="I96" s="94"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="91"/>
+      <c r="G96" s="91"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="91"/>
       <c r="J96" s="95"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="91"/>
-      <c r="B97" s="92"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="92"/>
-      <c r="J97" s="96"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="50">
     <mergeCell ref="A1:H4"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
@@ -3591,7 +3507,7 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C69:F69"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="B60:E60"/>
@@ -3609,21 +3525,19 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B65:I65"/>
     <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B76:I76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C15 G15" formula="1"/>
+    <ignoredError sqref="C15 G15 C64:I64" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3646,167 +3560,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="69">
+      <c r="B1" s="68">
         <f>'Fiche de production'!C35</f>
-        <v>5200.96</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="65" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="66">
         <f>B12*B1</f>
-        <v>57.210559999999994</v>
-      </c>
-      <c r="D4" s="67">
+        <v>13.112</v>
+      </c>
+      <c r="D4" s="66">
         <f>B1*B13</f>
-        <v>41.607680000000002</v>
-      </c>
-      <c r="E4" s="67">
+        <v>9.5359999999999996</v>
+      </c>
+      <c r="E4" s="66">
         <f>B14*B1</f>
-        <v>20.803840000000001</v>
-      </c>
-      <c r="F4" s="67">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="F4" s="66">
         <f>B15*B1</f>
-        <v>41.607680000000002</v>
+        <v>9.5359999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="66">
         <f>B1*B21</f>
-        <v>182.03360000000001</v>
-      </c>
-      <c r="D5" s="67">
+        <v>41.720000000000006</v>
+      </c>
+      <c r="D5" s="66">
         <f>B1*B22</f>
-        <v>83.215360000000004</v>
-      </c>
-      <c r="E5" s="67">
+        <v>19.071999999999999</v>
+      </c>
+      <c r="E5" s="66">
         <f>B23*B1</f>
-        <v>20.803840000000001</v>
-      </c>
-      <c r="F5" s="67">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="F5" s="66">
         <f>B24*B1</f>
-        <v>31.205760000000001</v>
+        <v>7.1520000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="70" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="72">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="72">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="72">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="74">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
     </row>
     <row r="19" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="64"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="70" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="73">
+      <c r="B21" s="72">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="73">
+      <c r="B22" s="72">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="73">
+      <c r="B23" s="72">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="74">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -3845,170 +3759,170 @@
       <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="55" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="55">
         <v>365</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="55">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="55">
         <v>365</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="55">
         <v>365</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="55">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="55">
         <v>365</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="55">
         <f>0.08+0.0012+0.004</f>
         <v>8.5200000000000012E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="55">
         <v>365</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="55">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="55">
         <v>365</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="55">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="55">
         <v>365</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="55">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="55">
         <v>365</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="55">
         <v>365</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="55">
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55">
         <v>365</v>
       </c>
     </row>
@@ -4031,854 +3945,854 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="61"/>
-    <col min="3" max="3" width="13.83203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="61"/>
-    <col min="6" max="6" width="33.83203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="61"/>
-    <col min="9" max="9" width="33.83203125" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="61"/>
+    <col min="1" max="1" width="11.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="60"/>
+    <col min="3" max="3" width="13.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="60"/>
+    <col min="6" max="6" width="33.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="60"/>
+    <col min="9" max="9" width="33.83203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="60">
+      <c r="G1" s="59">
         <f>'Fiche de production'!C35</f>
-        <v>5200.96</v>
-      </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+        <v>1192</v>
+      </c>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="62">
+      <c r="A2" s="61">
         <v>0</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="62">
         <v>0</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="60">
         <v>0</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="62">
+      <c r="G2" s="61">
         <f t="array" ref="G2">MAX(IF(A:A&lt;=G1,A:A))</f>
-        <v>5200</v>
-      </c>
-      <c r="J2" s="62"/>
+        <v>1000</v>
+      </c>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="62">
+      <c r="A3" s="61">
         <v>100</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="62">
         <v>6.5</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="60">
         <f t="shared" ref="C3:D13" si="0">A3-A2</f>
         <v>100</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="60">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="61">
         <f t="array" ref="G3">MIN(IF(A:A&gt;=G1,A:A))</f>
-        <v>5250</v>
-      </c>
-      <c r="J3" s="62"/>
+        <v>1250</v>
+      </c>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="62">
+      <c r="A4" s="61">
         <v>150</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="62">
         <v>10</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="60">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="60">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="61">
         <f>_xlfn.XLOOKUP(G2,A:A,B:B)</f>
-        <v>268.89999999999998</v>
-      </c>
-      <c r="J4" s="62"/>
+        <v>54.5</v>
+      </c>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="62">
+      <c r="A5" s="61">
         <v>200</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="62">
         <v>13.3</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="60">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="60">
         <f t="shared" si="0"/>
         <v>3.3000000000000007</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="61">
         <f>_xlfn.XLOOKUP(G3,A:A,B:B)</f>
-        <v>273.89999999999998</v>
-      </c>
-      <c r="J5" s="62"/>
+        <v>67</v>
+      </c>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="62">
+      <c r="A6" s="61">
         <v>250</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="62">
         <v>16.2</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="60">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="60">
         <f t="shared" si="0"/>
         <v>2.8999999999999986</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="62">
+      <c r="G6" s="61">
         <f>G4+(G1-G2)*(G5-G4)/(G3-G2)</f>
-        <v>268.99599999999998</v>
-      </c>
-      <c r="I6" s="60"/>
+        <v>64.099999999999994</v>
+      </c>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="62">
+      <c r="A7" s="61">
         <v>300.5</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="62">
         <v>19</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="60">
         <v>50</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="60">
         <f t="shared" si="0"/>
         <v>2.8000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="62">
+      <c r="A8" s="61">
         <v>350.5</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="62">
         <v>21.7</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="60">
         <f t="shared" ref="C8:D29" si="1">A8-A7</f>
         <v>50</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="60">
         <f t="shared" si="0"/>
         <v>2.6999999999999993</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="59">
         <f>'Fiche de production'!B43</f>
-        <v>3125.3990400000002</v>
+        <v>595.19999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="62">
+      <c r="A9" s="61">
         <v>400.5</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="62">
         <v>24.3</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="60">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="60">
         <f t="shared" si="0"/>
         <v>2.6000000000000014</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="61">
         <f t="array" ref="G9">MAX(IF(A:A&lt;=G8,A:A))</f>
-        <v>3000</v>
-      </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
+        <v>551.5</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="62">
+      <c r="A10" s="61">
         <v>451.5</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="62">
         <v>26.9</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="60">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="60">
         <f t="shared" si="0"/>
         <v>2.5999999999999979</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="61">
         <f t="array" ref="G10">MIN(IF(A:A&gt;=G8,A:A))</f>
-        <v>3250</v>
-      </c>
-      <c r="J10" s="64"/>
+        <v>600</v>
+      </c>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="62">
+      <c r="A11" s="61">
         <v>501.5</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="62">
         <v>29.4</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="60">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="60">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="61">
         <f>_xlfn.XLOOKUP(G9,A:A,B:B)</f>
-        <v>154.5</v>
-      </c>
-      <c r="J11" s="64"/>
+        <v>32</v>
+      </c>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="62">
+      <c r="A12" s="61">
         <v>551.5</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="62">
         <v>32</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="60">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="60">
         <f t="shared" si="0"/>
         <v>2.6000000000000014</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="61">
         <f>_xlfn.XLOOKUP(G10,A:A,B:B)</f>
-        <v>167</v>
-      </c>
-      <c r="J12" s="64"/>
+        <v>34.5</v>
+      </c>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="62">
+      <c r="A13" s="61">
         <v>600</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13" s="62">
         <v>34.5</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="60">
         <f t="shared" si="1"/>
         <v>48.5</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="60">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="61">
         <f>IFERROR((G11+(G8-G9)*(G12-G11)/(G10-G9)),0)</f>
-        <v>160.76995200000002</v>
-      </c>
-      <c r="J13" s="62"/>
+        <v>34.252577319587623</v>
+      </c>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="62">
+      <c r="A14" s="61">
         <v>750</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="62">
         <f>B13+D14</f>
         <v>42</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="60">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="60">
         <v>7.5</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="64"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="62">
+      <c r="A15" s="61">
         <v>1000</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="62">
         <f>B14+D15</f>
         <v>54.5</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="60">
         <v>12.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="62">
+      <c r="A16" s="61">
         <v>1250</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="62">
         <f t="shared" ref="B16:B29" si="2">B15+50/4</f>
         <v>67</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="59">
         <f>'Fiche de production'!B48</f>
-        <v>4925.7830400000003</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="62">
+      <c r="A17" s="61">
         <v>1500</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="62">
         <f t="shared" si="2"/>
         <v>79.5</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="61">
         <f t="array" ref="G17">MAX(IF(A:A&lt;=G16,A:A))</f>
-        <v>4899.5</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="62">
+      <c r="A18" s="61">
         <v>1750</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="62">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="62">
+      <c r="G18" s="61">
         <f t="array" ref="G18">MIN(IF(A:A&gt;=G16,A:A))</f>
-        <v>4950</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="62">
+      <c r="A19" s="61">
         <v>2000</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="62">
         <f t="shared" si="2"/>
         <v>104.5</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="61">
         <f>_xlfn.XLOOKUP(G17,A:A,B:B)</f>
-        <v>249.99999999999997</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="62">
+      <c r="A20" s="61">
         <v>2250</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="62">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="62">
+      <c r="G20" s="61">
         <f>_xlfn.XLOOKUP(G18,A:A,B:B)</f>
-        <v>252.79999999999998</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="62">
+      <c r="A21" s="61">
         <v>2500</v>
       </c>
-      <c r="B21" s="63">
+      <c r="B21" s="62">
         <f t="shared" si="2"/>
         <v>129.5</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="61">
         <f>G19+(G16-G17)*(G20-G19)/(G18-G17)</f>
-        <v>251.45727746534652</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="62">
+      <c r="A22" s="61">
         <v>2750</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="62">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="62">
+      <c r="A23" s="61">
         <v>3000</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="62">
         <f t="shared" si="2"/>
         <v>154.5</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="62">
+      <c r="A24" s="61">
         <v>3250</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="62">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="62">
+      <c r="A25" s="61">
         <v>3500</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="62">
         <f t="shared" si="2"/>
         <v>179.5</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="62">
+      <c r="A26" s="61">
         <v>3750</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="62">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="62">
+      <c r="A27" s="61">
         <v>4000</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="62">
         <f t="shared" si="2"/>
         <v>204.5</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="62">
+      <c r="A28" s="61">
         <v>4250</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="62">
         <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="62">
+      <c r="A29" s="61">
         <v>4500</v>
       </c>
-      <c r="B29" s="63">
+      <c r="B29" s="62">
         <f t="shared" si="2"/>
         <v>229.5</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="60">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="62">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="62">
+      <c r="A30" s="61">
         <v>4600</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="62">
         <f>D30+B29</f>
         <v>234.5</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="60">
         <v>100</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="60">
         <f>100*12.5/250</f>
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="62">
+      <c r="A31" s="61">
         <v>4650</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="62">
         <f t="shared" ref="B31:B40" si="3">B30+D31</f>
         <v>237</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="60">
         <f>C13</f>
         <v>48.5</v>
       </c>
-      <c r="D31" s="61">
+      <c r="D31" s="60">
         <f>D13</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="62">
+      <c r="A32" s="61">
         <v>4700</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="62">
         <f t="shared" si="3"/>
         <v>239.6</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="60">
         <f>C12</f>
         <v>50</v>
       </c>
-      <c r="D32" s="61">
+      <c r="D32" s="60">
         <f>D12</f>
         <v>2.6000000000000014</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="62">
+      <c r="A33" s="61">
         <v>4750</v>
       </c>
-      <c r="B33" s="63">
+      <c r="B33" s="62">
         <f t="shared" si="3"/>
         <v>242.1</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="60">
         <f>C11</f>
         <v>50</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="60">
         <f>D11</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="62">
+      <c r="A34" s="61">
         <v>4799.5</v>
       </c>
-      <c r="B34" s="63">
+      <c r="B34" s="62">
         <f t="shared" si="3"/>
         <v>244.7</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="60">
         <f>C10</f>
         <v>51</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="60">
         <f>D10</f>
         <v>2.5999999999999979</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="62">
+      <c r="A35" s="61">
         <v>4849.5</v>
       </c>
-      <c r="B35" s="63">
+      <c r="B35" s="62">
         <f t="shared" si="3"/>
         <v>247.29999999999998</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="60">
         <f>C9</f>
         <v>50</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="60">
         <f>D9</f>
         <v>2.6000000000000014</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="62">
+      <c r="A36" s="61">
         <v>4899.5</v>
       </c>
-      <c r="B36" s="63">
+      <c r="B36" s="62">
         <f t="shared" si="3"/>
         <v>249.99999999999997</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="60">
         <f>C8</f>
         <v>50</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="60">
         <f>D8</f>
         <v>2.6999999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="62">
+      <c r="A37" s="61">
         <v>4950</v>
       </c>
-      <c r="B37" s="63">
+      <c r="B37" s="62">
         <f t="shared" si="3"/>
         <v>252.79999999999998</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="60">
         <f>C7</f>
         <v>50</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="60">
         <f>D7</f>
         <v>2.8000000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="62">
+      <c r="A38" s="61">
         <v>5000</v>
       </c>
-      <c r="B38" s="63">
+      <c r="B38" s="62">
         <f t="shared" si="3"/>
         <v>255.7</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="60">
         <f>C6</f>
         <v>50</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="60">
         <f>D6</f>
         <v>2.8999999999999986</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="62">
+      <c r="A39" s="61">
         <v>5050</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="62">
         <f t="shared" si="3"/>
         <v>258.7</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="60">
         <f>C5</f>
         <v>50</v>
       </c>
-      <c r="D39" s="61">
+      <c r="D39" s="60">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="62">
+      <c r="A40" s="61">
         <v>5100</v>
       </c>
-      <c r="B40" s="63">
+      <c r="B40" s="62">
         <f t="shared" si="3"/>
         <v>261.89999999999998</v>
       </c>
-      <c r="C40" s="61">
+      <c r="C40" s="60">
         <f>C4</f>
         <v>50</v>
       </c>
-      <c r="D40" s="61">
+      <c r="D40" s="60">
         <v>3.2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="62">
+      <c r="A41" s="61">
         <v>5150</v>
       </c>
-      <c r="B41" s="63">
+      <c r="B41" s="62">
         <f>B40+D41</f>
         <v>265.29999999999995</v>
       </c>
-      <c r="C41" s="61">
+      <c r="C41" s="60">
         <v>50</v>
       </c>
-      <c r="D41" s="61">
+      <c r="D41" s="60">
         <v>3.4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="61">
+      <c r="A42" s="60">
         <v>5200</v>
       </c>
-      <c r="B42" s="63">
+      <c r="B42" s="62">
         <f>B41+D42</f>
         <v>268.89999999999998</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="60">
         <v>50</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="60">
         <v>3.6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="61">
+      <c r="A43" s="60">
         <v>5250</v>
       </c>
-      <c r="B43" s="63">
+      <c r="B43" s="62">
         <f>B42+D43</f>
         <v>273.89999999999998</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="60">
         <v>50</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="60">
         <v>5</v>
       </c>
     </row>

--- a/assets/Petite.xlsx
+++ b/assets/Petite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaspradignac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BF2CD6-8784-5940-9B7B-AABC48DBF9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51DA75D-C986-DC46-9035-C118FA0E07B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="27180" windowHeight="19840" xr2:uid="{0E25F3FA-30B7-4548-A2E6-27E425FF4E52}"/>
   </bookViews>
@@ -378,11 +378,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0&quot; L&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0&quot; cm&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="ddmmyy"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1488,30 +1489,6 @@
     <xf numFmtId="14" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1537,6 +1514,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1591,6 +1592,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>71119</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1300479" cy="2719955"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2EABF43-52BC-274D-BA6B-4C2CE17A5C63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4795520" y="6736079"/>
+          <a:ext cx="1300479" cy="2719955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1923,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC692FA-4504-2847-8060-0EEE7AA95510}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1935,62 +1978,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="151" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="152"/>
+      <c r="J1" s="144"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="147"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="153" t="s">
+      <c r="A2" s="156"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="154"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="147"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="155" t="s">
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="156"/>
+      <c r="J3" s="148"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="149"/>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="157" t="s">
+      <c r="A4" s="158"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="158"/>
+      <c r="J4" s="150"/>
     </row>
     <row r="5" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -2069,8 +2112,11 @@
       <c r="H10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="143"/>
-      <c r="J10" s="144"/>
+      <c r="I10" s="152">
+        <f>B10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="153"/>
     </row>
     <row r="11" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -2162,7 +2208,7 @@
       </c>
       <c r="C15" s="2">
         <f>C16*6</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
         <f>D16*12</f>
@@ -2192,9 +2238,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5">
-        <v>400</v>
-      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
@@ -2209,7 +2253,7 @@
       </c>
       <c r="B17" s="107">
         <f>(SUM(B15:E15)*0.33+SUM(F15:I15)*0.75)</f>
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
@@ -2347,7 +2391,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="159"/>
+      <c r="C26" s="151"/>
       <c r="D26" s="37" t="s">
         <v>33</v>
       </c>
@@ -2361,7 +2405,7 @@
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="159"/>
+      <c r="C27" s="151"/>
       <c r="D27" s="37" t="s">
         <v>34</v>
       </c>
@@ -2440,11 +2484,11 @@
       <c r="H31" s="117"/>
       <c r="I31" s="77">
         <f>SUM(B15:E15)</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="J31" s="83">
         <f>I31/3610</f>
-        <v>0.66481994459833793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2516,7 +2560,7 @@
       <c r="B35" s="128"/>
       <c r="C35" s="49">
         <f>B17+400</f>
-        <v>1192</v>
+        <v>400</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2541,7 +2585,7 @@
       <c r="B36" s="130"/>
       <c r="C36" s="50">
         <f>'CUVE 1 et 2 Mesure'!G6</f>
-        <v>64.099999999999994</v>
+        <v>24.274000000000001</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2630,7 +2674,7 @@
       </c>
       <c r="B42" s="124">
         <f>IF(ISNUMBER( SEARCH("Infusion",B8)), 0, (C35-200)*60%)</f>
-        <v>595.19999999999993</v>
+        <v>120</v>
       </c>
       <c r="C42" s="124"/>
       <c r="D42" s="125"/>
@@ -2647,7 +2691,7 @@
       </c>
       <c r="B43" s="124">
         <f>IF(ISNUMBER(SEARCH("infusion",B8)),0,_xlfn.XLOOKUP(B8,Data!E:E,Data!F:F)*'Fiche de production'!C35+B42)</f>
-        <v>595.19999999999993</v>
+        <v>120</v>
       </c>
       <c r="C43" s="124"/>
       <c r="D43" s="125"/>
@@ -2664,7 +2708,7 @@
       </c>
       <c r="B44" s="126">
         <f>'CUVE 1 et 2 Mesure'!G13</f>
-        <v>34.252577319587623</v>
+        <v>7.9</v>
       </c>
       <c r="C44" s="126"/>
       <c r="D44" s="127"/>
@@ -2722,7 +2766,7 @@
       </c>
       <c r="B48" s="120">
         <f>_xlfn.XLOOKUP(B8,Data!E:E,Data!F:F)*'Fiche de production'!C35+C35-400</f>
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="C48" s="120"/>
       <c r="D48" s="121"/>
@@ -2737,9 +2781,9 @@
       <c r="A49" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="122">
+      <c r="B49" s="122" t="e">
         <f>'CUVE 1 et 2 Mesure'!G21</f>
-        <v>44.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C49" s="122"/>
       <c r="D49" s="123"/>
@@ -2957,33 +3001,33 @@
       <c r="A63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="2" t="e">
         <f>ROUNDDOWN(((B15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C63" s="2" t="e">
         <f>ROUNDDOWN(((C15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
-        <v>1793</v>
-      </c>
-      <c r="D63" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D63" s="2" t="e">
         <f t="shared" ref="D63:I63" si="0">ROUNDDOWN(((D15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E63" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F63" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G63" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="8"/>
@@ -2992,33 +3036,33 @@
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="2" t="e">
         <f>ROUNDUP(B63/12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C64" s="2" t="e">
         <f>ROUNDUP(C63/6,0)</f>
-        <v>299</v>
-      </c>
-      <c r="D64" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D64" s="2" t="e">
         <f t="shared" ref="C64:I64" si="1">ROUNDUP(D63/12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="1" t="e">
         <f>ROUNDUP(F63/6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="2" t="e">
         <f>ROUNDUP(G63/4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="2" t="e">
         <f>ROUNDUP(H63/6,0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="8"/>
@@ -3538,6 +3582,7 @@
   <ignoredErrors>
     <ignoredError sqref="C15 G15 C64:I64" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3565,7 +3610,7 @@
       </c>
       <c r="B1" s="68">
         <f>'Fiche de production'!C35</f>
-        <v>1192</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3588,19 +3633,19 @@
       </c>
       <c r="C4" s="66">
         <f>B12*B1</f>
-        <v>13.112</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="D4" s="66">
         <f>B1*B13</f>
-        <v>9.5359999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="E4" s="66">
         <f>B14*B1</f>
-        <v>4.7679999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="F4" s="66">
         <f>B15*B1</f>
-        <v>9.5359999999999996</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3609,19 +3654,19 @@
       </c>
       <c r="C5" s="66">
         <f>B1*B21</f>
-        <v>41.720000000000006</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="D5" s="66">
         <f>B1*B22</f>
-        <v>19.071999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="E5" s="66">
         <f>B23*B1</f>
-        <v>4.7679999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="F5" s="66">
         <f>B24*B1</f>
-        <v>7.1520000000000001</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3974,7 +4019,7 @@
       </c>
       <c r="G1" s="59">
         <f>'Fiche de production'!C35</f>
-        <v>1192</v>
+        <v>400</v>
       </c>
       <c r="I1" s="59"/>
       <c r="J1" s="59"/>
@@ -3994,7 +4039,7 @@
       </c>
       <c r="G2" s="61">
         <f t="array" ref="G2">MAX(IF(A:A&lt;=G1,A:A))</f>
-        <v>1000</v>
+        <v>350.5</v>
       </c>
       <c r="J2" s="61"/>
     </row>
@@ -4018,7 +4063,7 @@
       </c>
       <c r="G3" s="61">
         <f t="array" ref="G3">MIN(IF(A:A&gt;=G1,A:A))</f>
-        <v>1250</v>
+        <v>400.5</v>
       </c>
       <c r="J3" s="61"/>
     </row>
@@ -4042,7 +4087,7 @@
       </c>
       <c r="G4" s="61">
         <f>_xlfn.XLOOKUP(G2,A:A,B:B)</f>
-        <v>54.5</v>
+        <v>21.7</v>
       </c>
       <c r="J4" s="61"/>
     </row>
@@ -4066,7 +4111,7 @@
       </c>
       <c r="G5" s="61">
         <f>_xlfn.XLOOKUP(G3,A:A,B:B)</f>
-        <v>67</v>
+        <v>24.3</v>
       </c>
       <c r="J5" s="61"/>
     </row>
@@ -4090,7 +4135,7 @@
       </c>
       <c r="G6" s="61">
         <f>G4+(G1-G2)*(G5-G4)/(G3-G2)</f>
-        <v>64.099999999999994</v>
+        <v>24.274000000000001</v>
       </c>
       <c r="I6" s="59"/>
     </row>
@@ -4129,7 +4174,7 @@
       </c>
       <c r="G8" s="59">
         <f>'Fiche de production'!B43</f>
-        <v>595.19999999999993</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4152,7 +4197,7 @@
       </c>
       <c r="G9" s="61">
         <f t="array" ref="G9">MAX(IF(A:A&lt;=G8,A:A))</f>
-        <v>551.5</v>
+        <v>100</v>
       </c>
       <c r="I9" s="59"/>
       <c r="J9" s="59"/>
@@ -4177,7 +4222,7 @@
       </c>
       <c r="G10" s="61">
         <f t="array" ref="G10">MIN(IF(A:A&gt;=G8,A:A))</f>
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="J10" s="63"/>
     </row>
@@ -4201,7 +4246,7 @@
       </c>
       <c r="G11" s="61">
         <f>_xlfn.XLOOKUP(G9,A:A,B:B)</f>
-        <v>32</v>
+        <v>6.5</v>
       </c>
       <c r="J11" s="63"/>
     </row>
@@ -4225,7 +4270,7 @@
       </c>
       <c r="G12" s="61">
         <f>_xlfn.XLOOKUP(G10,A:A,B:B)</f>
-        <v>34.5</v>
+        <v>10</v>
       </c>
       <c r="J12" s="63"/>
     </row>
@@ -4249,7 +4294,7 @@
       </c>
       <c r="G13" s="61">
         <f>IFERROR((G11+(G8-G9)*(G12-G11)/(G10-G9)),0)</f>
-        <v>34.252577319587623</v>
+        <v>7.9</v>
       </c>
       <c r="J13" s="61"/>
     </row>
@@ -4308,7 +4353,7 @@
       </c>
       <c r="G16" s="59">
         <f>'Fiche de production'!B48</f>
-        <v>792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4332,7 +4377,7 @@
       </c>
       <c r="G17" s="61">
         <f t="array" ref="G17">MAX(IF(A:A&lt;=G16,A:A))</f>
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4356,7 +4401,7 @@
       </c>
       <c r="G18" s="61">
         <f t="array" ref="G18">MIN(IF(A:A&gt;=G16,A:A))</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4380,7 +4425,7 @@
       </c>
       <c r="G19" s="61">
         <f>_xlfn.XLOOKUP(G17,A:A,B:B)</f>
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4404,7 +4449,7 @@
       </c>
       <c r="G20" s="61">
         <f>_xlfn.XLOOKUP(G18,A:A,B:B)</f>
-        <v>54.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4426,9 +4471,9 @@
       <c r="F21" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="61" t="e">
         <f>G19+(G16-G17)*(G20-G19)/(G18-G17)</f>
-        <v>44.1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">

--- a/assets/Petite.xlsx
+++ b/assets/Petite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaspradignac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51DA75D-C986-DC46-9035-C118FA0E07B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E057EFFD-B87B-934F-887C-82AE095568AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="27180" windowHeight="19840" xr2:uid="{0E25F3FA-30B7-4548-A2E6-27E425FF4E52}"/>
   </bookViews>
@@ -383,7 +383,7 @@
     <numFmt numFmtId="165" formatCode="#,##0&quot; L&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0&quot; cm&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="ddmmyy"/>
+    <numFmt numFmtId="168" formatCode="ddmmyy"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1348,6 +1348,85 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1363,6 +1442,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,6 +1460,75 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1380,163 +1537,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1966,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC692FA-4504-2847-8060-0EEE7AA95510}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1978,62 +1978,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="143" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="144"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="145" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="146"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="147" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="148"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="158"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="149" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="150"/>
+      <c r="J4" s="110"/>
     </row>
     <row r="5" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -2048,18 +2048,18 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -2077,15 +2077,15 @@
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="140"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
     </row>
     <row r="9" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -2103,8 +2103,8 @@
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="142"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2112,11 +2112,11 @@
       <c r="H10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="152">
+      <c r="I10" s="121">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="153"/>
+      <c r="J10" s="122"/>
     </row>
     <row r="11" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -2132,36 +2132,36 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99" t="s">
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="100"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="102"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="102"/>
+      <c r="G13" s="132"/>
       <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
@@ -2251,17 +2251,17 @@
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="107">
+      <c r="B17" s="128">
         <f>(SUM(B15:E15)*0.33+SUM(F15:I15)*0.75)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2277,18 +2277,18 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
     </row>
     <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -2309,11 +2309,11 @@
       <c r="F20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="133" t="s">
+      <c r="G20" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="134"/>
-      <c r="I20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="136"/>
       <c r="J20" s="23" t="s">
         <v>30</v>
       </c>
@@ -2327,9 +2327,9 @@
       <c r="F21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
       <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2341,9 +2341,9 @@
       <c r="F22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="136"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
       <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2355,9 +2355,9 @@
       <c r="F23" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="136"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2369,9 +2369,9 @@
       <c r="F24" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="136"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
       <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="151"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="37" t="s">
         <v>33</v>
       </c>
@@ -2405,7 +2405,7 @@
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="151"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="37" t="s">
         <v>34</v>
       </c>
@@ -2444,10 +2444,10 @@
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="140"/>
       <c r="C30" s="42">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!C:C)</f>
         <v>0</v>
@@ -2455,10 +2455,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="114" t="s">
+      <c r="G30" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="115"/>
+      <c r="H30" s="145"/>
       <c r="I30" s="80" t="s">
         <v>100</v>
       </c>
@@ -2467,10 +2467,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="130"/>
+      <c r="B31" s="142"/>
       <c r="C31" s="43">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!D:D)</f>
         <v>0</v>
@@ -2478,10 +2478,10 @@
       <c r="D31" s="47"/>
       <c r="E31" s="48"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="116" t="s">
+      <c r="G31" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="117"/>
+      <c r="H31" s="146"/>
       <c r="I31" s="77">
         <f>SUM(B15:E15)</f>
         <v>0</v>
@@ -2492,10 +2492,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="130"/>
+      <c r="B32" s="142"/>
       <c r="C32" s="43">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!E:E)</f>
         <v>0</v>
@@ -2517,10 +2517,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="131" t="s">
+      <c r="A33" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="132"/>
+      <c r="B33" s="138"/>
       <c r="C33" s="53">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!F:F)</f>
         <v>0</v>
@@ -2554,10 +2554,10 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="116" t="s">
+      <c r="A35" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="140"/>
       <c r="C35" s="49">
         <f>B17+400</f>
         <v>400</v>
@@ -2579,10 +2579,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="129" t="s">
+      <c r="A36" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="130"/>
+      <c r="B36" s="142"/>
       <c r="C36" s="50">
         <f>'CUVE 1 et 2 Mesure'!G6</f>
         <v>24.274000000000001</v>
@@ -2596,10 +2596,10 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="129" t="s">
+      <c r="A37" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="130"/>
+      <c r="B37" s="142"/>
       <c r="C37" s="50" t="s">
         <v>43</v>
       </c>
@@ -2612,10 +2612,10 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="131" t="s">
+      <c r="A38" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="132"/>
+      <c r="B38" s="138"/>
       <c r="C38" s="51" t="s">
         <v>45</v>
       </c>
@@ -2658,9 +2658,9 @@
         <f>A8</f>
         <v>Produit  :</v>
       </c>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="148"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2672,12 +2672,12 @@
       <c r="A42" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="124">
+      <c r="B42" s="153">
         <f>IF(ISNUMBER( SEARCH("Infusion",B8)), 0, (C35-200)*60%)</f>
         <v>120</v>
       </c>
-      <c r="C42" s="124"/>
-      <c r="D42" s="125"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="154"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2689,12 +2689,12 @@
       <c r="A43" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="124">
+      <c r="B43" s="153">
         <f>IF(ISNUMBER(SEARCH("infusion",B8)),0,_xlfn.XLOOKUP(B8,Data!E:E,Data!F:F)*'Fiche de production'!C35+B42)</f>
         <v>120</v>
       </c>
-      <c r="C43" s="124"/>
-      <c r="D43" s="125"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="154"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2706,12 +2706,12 @@
       <c r="A44" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="126">
+      <c r="B44" s="155">
         <f>'CUVE 1 et 2 Mesure'!G13</f>
         <v>7.9</v>
       </c>
-      <c r="C44" s="126"/>
-      <c r="D44" s="127"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="156"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2750,9 +2750,9 @@
         <f>A14</f>
         <v>Quantité</v>
       </c>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="119"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="148"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2764,12 +2764,12 @@
       <c r="A48" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="120">
-        <f>_xlfn.XLOOKUP(B8,Data!E:E,Data!F:F)*'Fiche de production'!C35+C35-400</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="121"/>
+      <c r="B48" s="149">
+        <f>_xlfn.XLOOKUP(B8,Data!E:E,Data!F:F)*'Fiche de production'!C35+C35-200</f>
+        <v>200</v>
+      </c>
+      <c r="C48" s="149"/>
+      <c r="D48" s="150"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2781,12 +2781,12 @@
       <c r="A49" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="122" t="e">
+      <c r="B49" s="151" t="e">
         <f>'CUVE 1 et 2 Mesure'!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C49" s="122"/>
-      <c r="D49" s="123"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="152"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -2874,18 +2874,18 @@
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="111" t="s">
+      <c r="A56" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="112"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="115"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
@@ -2905,13 +2905,13 @@
         <f>A8</f>
         <v>Produit  :</v>
       </c>
-      <c r="C58" s="110">
+      <c r="C58" s="143">
         <f>B8</f>
         <v>0</v>
       </c>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -2931,36 +2931,36 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
-      <c r="B60" s="96" t="s">
+      <c r="B60" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="99" t="s">
+      <c r="C60" s="124"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="100"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="127"/>
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
-      <c r="B61" s="101" t="s">
+      <c r="B61" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="102"/>
+      <c r="C61" s="132"/>
       <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="103" t="s">
+      <c r="F61" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="102"/>
+      <c r="G61" s="132"/>
       <c r="H61" s="2" t="s">
         <v>3</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D63" s="2" t="e">
-        <f t="shared" ref="D63:I63" si="0">ROUNDDOWN(((D15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
+        <f t="shared" ref="D63:H63" si="0">ROUNDDOWN(((D15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E63" s="3" t="e">
@@ -3045,7 +3045,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D64" s="2" t="e">
-        <f t="shared" ref="C64:I64" si="1">ROUNDUP(D63/12,0)</f>
+        <f t="shared" ref="D64:E64" si="1">ROUNDUP(D63/12,0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E64" s="3" t="e">
@@ -3092,18 +3092,18 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="111" t="s">
+      <c r="A67" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="112"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="113"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="115"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -3123,13 +3123,13 @@
         <f>B58</f>
         <v>Produit  :</v>
       </c>
-      <c r="C69" s="110">
+      <c r="C69" s="143">
         <f>C58</f>
         <v>0</v>
       </c>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
-      <c r="F69" s="110"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="143"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -3149,36 +3149,36 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
-      <c r="B71" s="96" t="s">
+      <c r="B71" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="99" t="s">
+      <c r="C71" s="124"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="G71" s="97"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="100"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="127"/>
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
-      <c r="B72" s="101" t="s">
+      <c r="B72" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="102"/>
+      <c r="C72" s="132"/>
       <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F72" s="103" t="s">
+      <c r="F72" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="102"/>
+      <c r="G72" s="132"/>
       <c r="H72" s="2" t="s">
         <v>3</v>
       </c>
@@ -3247,17 +3247,17 @@
       <c r="A76" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="104">
+      <c r="B76" s="157">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C76" s="105"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="106"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="158"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="159"/>
       <c r="J76" s="8"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3526,31 +3526,15 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:I71"/>
     <mergeCell ref="C69:F69"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
@@ -3567,20 +3551,38 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C15 G15 C64:I64" formula="1"/>
+    <ignoredError sqref="C15:D15 G15 I64" formula="1"/>
+    <ignoredError sqref="C64:H64" evalError="1" formula="1"/>
+    <ignoredError sqref="B63:H63 B64" evalError="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4353,7 +4355,7 @@
       </c>
       <c r="G16" s="59">
         <f>'Fiche de production'!B48</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4377,7 +4379,7 @@
       </c>
       <c r="G17" s="61">
         <f t="array" ref="G17">MAX(IF(A:A&lt;=G16,A:A))</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4401,7 +4403,7 @@
       </c>
       <c r="G18" s="61">
         <f t="array" ref="G18">MIN(IF(A:A&gt;=G16,A:A))</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4425,7 +4427,7 @@
       </c>
       <c r="G19" s="61">
         <f>_xlfn.XLOOKUP(G17,A:A,B:B)</f>
-        <v>0</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4449,7 +4451,7 @@
       </c>
       <c r="G20" s="61">
         <f>_xlfn.XLOOKUP(G18,A:A,B:B)</f>
-        <v>0</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">

--- a/assets/Petite.xlsx
+++ b/assets/Petite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaspradignac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E057EFFD-B87B-934F-887C-82AE095568AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03359776-1A56-CA47-A3C0-88C3A068AE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="27180" windowHeight="19840" xr2:uid="{0E25F3FA-30B7-4548-A2E6-27E425FF4E52}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>X12</t>
   </si>
   <si>
-    <t>Fiche de production Cuve de 5000 L</t>
-  </si>
-  <si>
     <t>Code : PROD_EN_002</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>Incidents</t>
+  </si>
+  <si>
+    <t>CUVES 5000 L</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="ddmmyy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -559,6 +559,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1349,23 +1356,152 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1391,152 +1527,23 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1964,10 +1971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC692FA-4504-2847-8060-0EEE7AA95510}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1978,62 +1985,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="103" t="s">
+      <c r="J1" s="147"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="156"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="104"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="105" t="s">
+      <c r="J2" s="149"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="106"/>
-    </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="107" t="s">
+      <c r="J3" s="151"/>
+    </row>
+    <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="158"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="108"/>
-    </row>
-    <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="110"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -2048,18 +2055,18 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="A6" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
     </row>
     <row r="7" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -2075,17 +2082,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="118"/>
+        <v>17</v>
+      </c>
+      <c r="B8" s="133"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
     </row>
     <row r="9" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -2101,22 +2108,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="136"/>
+      <c r="C10" s="137"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="121">
+        <v>19</v>
+      </c>
+      <c r="I10" s="138">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="122"/>
+      <c r="J10" s="139"/>
     </row>
     <row r="11" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -2132,36 +2139,36 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="127"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="111"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="132"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="132"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
@@ -2251,17 +2258,17 @@
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="128">
+      <c r="B17" s="140">
         <f>(SUM(B15:E15)*0.33+SUM(F15:I15)*0.75)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="142"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2277,45 +2284,45 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="115"/>
+      <c r="A19" s="104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
     </row>
     <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="D20" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="E20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="G20" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="134" t="s">
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="H20" s="135"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="23" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2325,11 +2332,11 @@
       <c r="D21" s="26"/>
       <c r="E21" s="18"/>
       <c r="F21" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="111"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
+        <v>30</v>
+      </c>
+      <c r="G21" s="131"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
       <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2339,11 +2346,11 @@
       <c r="D22" s="21"/>
       <c r="E22" s="18"/>
       <c r="F22" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
+        <v>30</v>
+      </c>
+      <c r="G22" s="131"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
       <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2353,11 +2360,11 @@
       <c r="D23" s="21"/>
       <c r="E23" s="31"/>
       <c r="F23" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="111"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
+        <v>30</v>
+      </c>
+      <c r="G23" s="131"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2367,11 +2374,11 @@
       <c r="D24" s="30"/>
       <c r="E24" s="32"/>
       <c r="F24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
+        <v>30</v>
+      </c>
+      <c r="G24" s="131"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
       <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2388,12 +2395,12 @@
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="96"/>
       <c r="D26" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -2407,7 +2414,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="96"/>
       <c r="D27" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -2430,7 +2437,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -2438,16 +2445,16 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H29" s="38"/>
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="139" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="140"/>
+      <c r="A30" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="126"/>
       <c r="C30" s="42">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!C:C)</f>
         <v>0</v>
@@ -2455,22 +2462,22 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="144" t="s">
+      <c r="G30" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="113"/>
+      <c r="I30" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="145"/>
-      <c r="I30" s="80" t="s">
+      <c r="J30" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="80" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="142"/>
+      <c r="A31" s="127" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="128"/>
       <c r="C31" s="43">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!D:D)</f>
         <v>0</v>
@@ -2478,10 +2485,10 @@
       <c r="D31" s="47"/>
       <c r="E31" s="48"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="139" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="146"/>
+      <c r="G31" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="115"/>
       <c r="I31" s="77">
         <f>SUM(B15:E15)</f>
         <v>0</v>
@@ -2492,10 +2499,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="141" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="142"/>
+      <c r="A32" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="128"/>
       <c r="C32" s="43">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!E:E)</f>
         <v>0</v>
@@ -2504,7 +2511,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H32" s="44"/>
       <c r="I32" s="77">
@@ -2517,10 +2524,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="137" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="138"/>
+      <c r="A33" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="130"/>
       <c r="C33" s="53">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!F:F)</f>
         <v>0</v>
@@ -2529,7 +2536,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33" s="46"/>
       <c r="I33" s="78">
@@ -2554,10 +2561,10 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="139" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="140"/>
+      <c r="A35" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="126"/>
       <c r="C35" s="49">
         <f>B17+400</f>
         <v>400</v>
@@ -2566,7 +2573,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H35" s="85"/>
       <c r="I35" s="80">
@@ -2579,10 +2586,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="141" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="142"/>
+      <c r="A36" s="127" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="128"/>
       <c r="C36" s="50">
         <f>'CUVE 1 et 2 Mesure'!G6</f>
         <v>24.274000000000001</v>
@@ -2596,12 +2603,12 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="141" t="s">
+      <c r="A37" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="128"/>
+      <c r="C37" s="50" t="s">
         <v>42</v>
-      </c>
-      <c r="B37" s="142"/>
-      <c r="C37" s="50" t="s">
-        <v>43</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2612,12 +2619,12 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="137" t="s">
+      <c r="A38" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="130"/>
+      <c r="C38" s="51" t="s">
         <v>44</v>
-      </c>
-      <c r="B38" s="138"/>
-      <c r="C38" s="51" t="s">
-        <v>45</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2641,7 +2648,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -2658,9 +2665,9 @@
         <f>A8</f>
         <v>Produit  :</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="148"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2670,14 +2677,14 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="153">
+        <v>46</v>
+      </c>
+      <c r="B42" s="122">
         <f>IF(ISNUMBER( SEARCH("Infusion",B8)), 0, (C35-200)*60%)</f>
         <v>120</v>
       </c>
-      <c r="C42" s="153"/>
-      <c r="D42" s="154"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="123"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2687,14 +2694,14 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="153">
+        <v>47</v>
+      </c>
+      <c r="B43" s="122">
         <f>IF(ISNUMBER(SEARCH("infusion",B8)),0,_xlfn.XLOOKUP(B8,Data!E:E,Data!F:F)*'Fiche de production'!C35+B42)</f>
         <v>120</v>
       </c>
-      <c r="C43" s="153"/>
-      <c r="D43" s="154"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="123"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2704,14 +2711,14 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="155">
+        <v>48</v>
+      </c>
+      <c r="B44" s="124">
         <f>'CUVE 1 et 2 Mesure'!G13</f>
         <v>7.9</v>
       </c>
-      <c r="C44" s="155"/>
-      <c r="D44" s="156"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="125"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2733,7 +2740,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -2750,9 +2757,9 @@
         <f>A14</f>
         <v>Quantité</v>
       </c>
-      <c r="B47" s="147"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="148"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2762,14 +2769,14 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="149">
+        <v>77</v>
+      </c>
+      <c r="B48" s="118">
         <f>_xlfn.XLOOKUP(B8,Data!E:E,Data!F:F)*'Fiche de production'!C35+C35-200</f>
         <v>200</v>
       </c>
-      <c r="C48" s="149"/>
-      <c r="D48" s="150"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="119"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2779,14 +2786,14 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="151" t="e">
+        <v>48</v>
+      </c>
+      <c r="B49" s="120" t="e">
         <f>'CUVE 1 et 2 Mesure'!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C49" s="151"/>
-      <c r="D49" s="152"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="121"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -2808,7 +2815,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2851,15 +2858,10 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="37" t="s">
-        <v>93</v>
-      </c>
+      <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="76">
-        <f>A21</f>
-        <v>0</v>
-      </c>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -2873,19 +2875,22 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="115"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="76">
+        <f>A21</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
@@ -2899,23 +2904,19 @@
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="86" t="str">
-        <f>A8</f>
-        <v>Produit  :</v>
-      </c>
-      <c r="C58" s="143">
-        <f>B8</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="143"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+    <row r="58" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="106"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
@@ -2930,180 +2931,184 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="123" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="86" t="str">
+        <f>A8</f>
+        <v>Produit  :</v>
+      </c>
+      <c r="C60" s="103">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="124"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="126" t="s">
+      <c r="C62" s="108"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G60" s="124"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="127"/>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="131" t="s">
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="12"/>
+      <c r="B63" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="132"/>
-      <c r="D61" s="2" t="s">
+      <c r="C63" s="98"/>
+      <c r="D63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="133" t="s">
+      <c r="E63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="132"/>
-      <c r="H61" s="2" t="s">
+      <c r="G63" s="98"/>
+      <c r="H63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="I64" s="2"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="2" t="e">
+      <c r="B65" s="2" t="e">
         <f>ROUNDDOWN(((B15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C63" s="2" t="e">
+      <c r="C65" s="2" t="e">
         <f>ROUNDDOWN(((C15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D63" s="2" t="e">
-        <f t="shared" ref="D63:H63" si="0">ROUNDDOWN(((D15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
+      <c r="D65" s="2" t="e">
+        <f t="shared" ref="D65:H65" si="0">ROUNDDOWN(((D15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E63" s="3" t="e">
+      <c r="E65" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F63" s="1" t="e">
+      <c r="F65" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="2" t="e">
+      <c r="G65" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="2" t="e">
+      <c r="H65" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="I65" s="2"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="2" t="e">
-        <f>ROUNDUP(B63/12,0)</f>
+      <c r="B66" s="2" t="e">
+        <f>ROUNDUP(B65/12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C64" s="2" t="e">
-        <f>ROUNDUP(C63/6,0)</f>
+      <c r="C66" s="2" t="e">
+        <f>ROUNDUP(C65/6,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D64" s="2" t="e">
-        <f t="shared" ref="D64:E64" si="1">ROUNDUP(D63/12,0)</f>
+      <c r="D66" s="2" t="e">
+        <f t="shared" ref="D66:E66" si="1">ROUNDUP(D65/12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E64" s="3" t="e">
+      <c r="E66" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F64" s="1" t="e">
-        <f>ROUNDUP(F63/6,0)</f>
+      <c r="F66" s="1" t="e">
+        <f>ROUNDUP(F65/6,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G64" s="2" t="e">
-        <f>ROUNDUP(G63/4,0)</f>
+      <c r="G66" s="2" t="e">
+        <f>ROUNDUP(G65/4,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="2" t="e">
-        <f>ROUNDUP(H63/6,0)</f>
+      <c r="H66" s="2" t="e">
+        <f>ROUNDUP(H65/6,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
+      <c r="I66" s="2"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="113" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="115"/>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -3117,23 +3122,19 @@
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="86" t="str">
-        <f>B58</f>
-        <v>Produit  :</v>
-      </c>
-      <c r="C69" s="143">
-        <f>C58</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="143"/>
-      <c r="E69" s="143"/>
-      <c r="F69" s="143"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
+    <row r="69" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="106"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
@@ -3148,175 +3149,177 @@
       <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="123" t="s">
+      <c r="A71" s="8"/>
+      <c r="B71" s="86" t="str">
+        <f>B60</f>
+        <v>Produit  :</v>
+      </c>
+      <c r="C71" s="103">
+        <f>C60</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
+      <c r="B73" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="124"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="125"/>
-      <c r="F71" s="126" t="s">
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="109"/>
+      <c r="F73" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G71" s="124"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="127"/>
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="131" t="s">
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="111"/>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="12"/>
+      <c r="B74" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="132"/>
-      <c r="D72" s="2" t="s">
+      <c r="C74" s="98"/>
+      <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F72" s="133" t="s">
+      <c r="E74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="132"/>
-      <c r="H72" s="2" t="s">
+      <c r="G74" s="98"/>
+      <c r="H74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="8"/>
     </row>
     <row r="76" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="157">
+        <v>7</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="100">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C76" s="158"/>
-      <c r="D76" s="158"/>
-      <c r="E76" s="158"/>
-      <c r="F76" s="158"/>
-      <c r="G76" s="158"/>
-      <c r="H76" s="158"/>
-      <c r="I76" s="159"/>
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="101"/>
+      <c r="F78" s="101"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="102"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="8"/>
     </row>
     <row r="81" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3328,67 +3331,71 @@
       <c r="I81" s="2"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
+    <row r="82" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+    <row r="83" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
       <c r="J83" s="8"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="88"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="88"/>
-      <c r="H84" s="88"/>
-      <c r="I84" s="88"/>
-      <c r="J84" s="92"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="89"/>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="93"/>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="93"/>
-      <c r="H85" s="93"/>
-      <c r="I85" s="93"/>
-      <c r="J85" s="94"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="89"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="93"/>
-      <c r="I86" s="93"/>
-      <c r="J86" s="94"/>
+      <c r="A86" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="88"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="88"/>
+      <c r="F86" s="88"/>
+      <c r="G86" s="88"/>
+      <c r="H86" s="88"/>
+      <c r="I86" s="88"/>
+      <c r="J86" s="92"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="89"/>
@@ -3415,66 +3422,66 @@
       <c r="J88" s="94"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="90"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="95"/>
+      <c r="A89" s="89"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="93"/>
+      <c r="H89" s="93"/>
+      <c r="I89" s="93"/>
+      <c r="J89" s="94"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="93"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="93"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="93"/>
+      <c r="I90" s="93"/>
+      <c r="J90" s="94"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91" s="88"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="88"/>
-      <c r="H91" s="88"/>
-      <c r="I91" s="88"/>
-      <c r="J91" s="92"/>
+      <c r="A91" s="90"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="91"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="91"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="95"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="89"/>
-      <c r="B92" s="93"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="93"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="93"/>
-      <c r="I92" s="93"/>
-      <c r="J92" s="94"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="89"/>
-      <c r="B93" s="93"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="93"/>
-      <c r="E93" s="93"/>
-      <c r="F93" s="93"/>
-      <c r="G93" s="93"/>
-      <c r="H93" s="93"/>
-      <c r="I93" s="93"/>
-      <c r="J93" s="94"/>
+      <c r="A93" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="88"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="88"/>
+      <c r="H93" s="88"/>
+      <c r="I93" s="88"/>
+      <c r="J93" s="92"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="89"/>
@@ -3501,49 +3508,87 @@
       <c r="J95" s="94"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="90"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="91"/>
-      <c r="G96" s="91"/>
-      <c r="H96" s="91"/>
-      <c r="I96" s="91"/>
-      <c r="J96" s="95"/>
+      <c r="A96" s="89"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="93"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="93"/>
+      <c r="G96" s="93"/>
+      <c r="H96" s="93"/>
+      <c r="I96" s="93"/>
+      <c r="J96" s="94"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
+      <c r="A97" s="89"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="93"/>
+      <c r="J97" s="94"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="90"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="91"/>
+      <c r="H98" s="91"/>
+      <c r="I98" s="91"/>
+      <c r="J98" s="95"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="G24:I24"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:I62"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A58:J58"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
@@ -3552,37 +3597,23 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="F63:G63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C15:D15 G15 I64" formula="1"/>
-    <ignoredError sqref="C64:H64" evalError="1" formula="1"/>
-    <ignoredError sqref="B63:H63 B64" evalError="1"/>
+    <ignoredError sqref="C15:D15 G15 I66" formula="1"/>
+    <ignoredError sqref="C66:H66" evalError="1" formula="1"/>
+    <ignoredError sqref="B65:H65 B66" evalError="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3608,7 +3639,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="68">
         <f>'Fiche de production'!C35</f>
@@ -3617,21 +3648,21 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="65" t="s">
-        <v>90</v>
-      </c>
       <c r="E3" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="65" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="66">
         <f>B12*B1</f>
@@ -3652,7 +3683,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="66">
         <f>B1*B21</f>
@@ -3673,19 +3704,19 @@
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="69"/>
       <c r="B11" s="70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="72">
         <v>1.0999999999999999E-2</v>
@@ -3693,7 +3724,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="72">
         <v>8.0000000000000002E-3</v>
@@ -3701,7 +3732,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="72">
         <v>4.0000000000000001E-3</v>
@@ -3709,7 +3740,7 @@
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="74">
         <v>8.0000000000000002E-3</v>
@@ -3729,19 +3760,19 @@
     </row>
     <row r="19" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="64"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="69"/>
       <c r="B20" s="70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="72">
         <v>3.5000000000000003E-2</v>
@@ -3749,7 +3780,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="72">
         <v>1.6E-2</v>
@@ -3757,7 +3788,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="72">
         <v>4.0000000000000001E-3</v>
@@ -3765,7 +3796,7 @@
     </row>
     <row r="24" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="74">
         <v>6.0000000000000001E-3</v>
@@ -3795,33 +3826,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="55" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="55" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="55">
         <v>365</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="55">
         <v>4.0000000000000001E-3</v>
@@ -3829,16 +3860,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="55">
         <v>365</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="55">
         <v>8.0000000000000002E-3</v>
@@ -3846,16 +3877,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="55">
         <v>365</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="55">
         <v>2.4E-2</v>
@@ -3863,16 +3894,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="55">
         <v>365</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="55">
         <f>0.08+0.0012+0.004</f>
@@ -3881,16 +3912,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="55">
         <v>365</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="55">
         <v>3.4000000000000002E-2</v>
@@ -3898,16 +3929,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="55">
         <v>365</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="55">
         <v>4.7000000000000002E-3</v>
@@ -3915,16 +3946,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="55">
         <v>365</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="55">
         <v>7.0000000000000001E-3</v>
@@ -3932,16 +3963,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="55">
         <v>365</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="55">
         <v>0</v>
@@ -3949,16 +3980,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="55">
         <v>365</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="55">
         <v>1.5800000000000002E-2</v>
@@ -3966,7 +3997,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="55"/>
       <c r="C11" s="55">
@@ -4005,19 +4036,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="C1" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="D1" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="59" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="59">
         <f>'Fiche de production'!C35</f>
@@ -4037,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="61">
         <f t="array" ref="G2">MAX(IF(A:A&lt;=G1,A:A))</f>
@@ -4061,7 +4092,7 @@
         <v>6.5</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="61">
         <f t="array" ref="G3">MIN(IF(A:A&gt;=G1,A:A))</f>
@@ -4085,7 +4116,7 @@
         <v>3.5</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="61">
         <f>_xlfn.XLOOKUP(G2,A:A,B:B)</f>
@@ -4109,7 +4140,7 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="61">
         <f>_xlfn.XLOOKUP(G3,A:A,B:B)</f>
@@ -4133,7 +4164,7 @@
         <v>2.8999999999999986</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="61">
         <f>G4+(G1-G2)*(G5-G4)/(G3-G2)</f>
@@ -4172,7 +4203,7 @@
         <v>2.6999999999999993</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="59">
         <f>'Fiche de production'!B43</f>
@@ -4195,7 +4226,7 @@
         <v>2.6000000000000014</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="61">
         <f t="array" ref="G9">MAX(IF(A:A&lt;=G8,A:A))</f>
@@ -4220,7 +4251,7 @@
         <v>2.5999999999999979</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="61">
         <f t="array" ref="G10">MIN(IF(A:A&gt;=G8,A:A))</f>
@@ -4244,7 +4275,7 @@
         <v>2.5</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="61">
         <f>_xlfn.XLOOKUP(G9,A:A,B:B)</f>
@@ -4268,7 +4299,7 @@
         <v>2.6000000000000014</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="61">
         <f>_xlfn.XLOOKUP(G10,A:A,B:B)</f>
@@ -4292,7 +4323,7 @@
         <v>2.5</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="61">
         <f>IFERROR((G11+(G8-G9)*(G12-G11)/(G10-G9)),0)</f>
@@ -4351,7 +4382,7 @@
         <v>12.5</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="59">
         <f>'Fiche de production'!B48</f>
@@ -4375,7 +4406,7 @@
         <v>12.5</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="61">
         <f t="array" ref="G17">MAX(IF(A:A&lt;=G16,A:A))</f>
@@ -4399,7 +4430,7 @@
         <v>12.5</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="61">
         <f t="array" ref="G18">MIN(IF(A:A&gt;=G16,A:A))</f>
@@ -4423,7 +4454,7 @@
         <v>12.5</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="61">
         <f>_xlfn.XLOOKUP(G17,A:A,B:B)</f>
@@ -4447,7 +4478,7 @@
         <v>12.5</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="61">
         <f>_xlfn.XLOOKUP(G18,A:A,B:B)</f>
@@ -4471,7 +4502,7 @@
         <v>12.5</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="61" t="e">
         <f>G19+(G16-G17)*(G20-G19)/(G18-G17)</f>
